--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBF9DBF-BAFD-4D02-8BD6-AE4CD0B04C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974913F-EB3E-441C-9BFB-AF8E9AA0B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="690" windowWidth="20895" windowHeight="22935" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="18060" yWindow="4035" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -17875,7 +17875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB5152-A262-4E1B-845F-E34078273DE6}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4974913F-EB3E-441C-9BFB-AF8E9AA0B2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DDCF77-F123-4794-8807-F3A1D9E5B9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="4035" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="8445" yWindow="3615" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="4" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>v-нац</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Замеченные и исправленные опечатки выделены синим фоном</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>v-сырец-белый</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -7239,8 +7239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00F5B0-A912-49AB-BE84-C73F5737F9E7}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8795,7 +8795,7 @@
         <v>-24659</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="0"/>
@@ -9816,17 +9816,17 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
@@ -12349,7 +12349,7 @@
         <v>25</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -15416,23 +15416,23 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -17875,7 +17875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DB5152-A262-4E1B-845F-E34078273DE6}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DDCF77-F123-4794-8807-F3A1D9E5B9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90B043-186F-42B1-90BD-935C8E08030A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="3615" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="4" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="5" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="37">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Promedio 1931/34</t>
   </si>
 </sst>
 </file>
@@ -7239,7 +7242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00F5B0-A912-49AB-BE84-C73F5737F9E7}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -9841,8 +9844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44A7E46-8081-4348-9E87-85C27BFBEE4A}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10232,7 +10235,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3">
         <v>995</v>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B90B043-186F-42B1-90BD-935C8E08030A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D470C-2B0D-485C-B593-8EECEB853FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="5" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Arvejon" sheetId="8" r:id="rId8"/>
     <sheet name="Avena en grano" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="38">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -151,13 +156,17 @@
   <si>
     <t>Promedio 1931/34</t>
   </si>
+  <si>
+    <t>Отрицательное значение потребления в 1934 году отражает экспорт остатков и уменьшенное потребление в предшествующем году</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,6 +245,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,14 +567,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -581,12 +592,12 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -604,7 +615,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -638,7 +649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -668,7 +679,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -690,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -712,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -734,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -756,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -778,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -800,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -822,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -844,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -866,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -888,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -910,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -954,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -976,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1020,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1042,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1086,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1174,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1240,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1262,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1306,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1328,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1350,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1416,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1438,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1504,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1614,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1636,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1658,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1680,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1724,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1812,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1834,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1878,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1900,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1922,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -1988,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2054,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2186,13 +2197,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="7"/>
     </row>
   </sheetData>
@@ -2211,16 +2222,16 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.26171875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.68359375" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2238,7 +2249,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2302,7 +2313,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2336,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2370,7 +2381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2438,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2614,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2722,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2758,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2830,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2866,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2902,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2938,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2974,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3010,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3046,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3082,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3118,7 +3129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3186,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3220,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3254,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3288,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3322,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3356,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3424,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3458,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3492,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3526,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3594,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3664,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3700,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3736,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3844,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3916,7 +3927,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3952,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -3988,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4024,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4060,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4096,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4132,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4168,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4240,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4276,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4312,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4348,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4384,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4420,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4488,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4524,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4560,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4704,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4757,12 +4768,12 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4780,7 +4791,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4844,7 +4855,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4912,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4946,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4980,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5014,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5048,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5082,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5116,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5184,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5218,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5254,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5322,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5354,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5388,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5458,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5494,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5668,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5700,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5734,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5766,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5800,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5832,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5868,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5900,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5932,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5968,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6002,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6034,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -6070,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6104,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6136,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6168,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6202,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6308,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6344,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6380,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6416,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6452,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -6488,7 +6499,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6524,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6560,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6596,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6632,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6668,7 +6679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -6704,7 +6715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6776,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6812,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6848,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6884,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -6920,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6954,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6988,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7022,7 +7033,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7092,7 +7103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -7128,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7196,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7246,12 +7257,12 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7269,7 +7280,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7333,7 +7344,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7369,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7405,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7441,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7477,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7513,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7549,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7585,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7621,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7657,7 +7668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7693,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7729,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7765,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7801,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7873,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7909,7 +7920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7945,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7981,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -8017,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -8053,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -8089,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -8125,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -8161,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -8197,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -8233,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -8269,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -8305,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -8341,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -8377,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8449,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8521,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8557,7 +8568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8593,7 +8604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8629,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8665,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8701,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8737,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8773,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8809,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8845,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8881,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8917,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8953,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8989,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -9025,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -9061,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -9097,7 +9108,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -9133,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -9169,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -9205,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -9241,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -9277,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -9313,7 +9324,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -9349,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -9385,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -9421,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -9457,7 +9468,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9493,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -9529,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -9565,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -9601,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -9637,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -9673,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -9709,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -9745,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9781,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9817,17 +9828,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -9844,16 +9855,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44A7E46-8081-4348-9E87-85C27BFBEE4A}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9871,7 +9882,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9905,7 +9916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9935,7 +9946,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9957,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9979,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -10001,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -10023,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -10045,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -10067,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -10089,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -10125,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -10150,7 +10161,7 @@
         <v>1004</v>
       </c>
       <c r="J12" s="7">
-        <v>5.2999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
@@ -10161,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -10197,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -10233,7 +10244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -10269,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -10305,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -10341,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -10377,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -10413,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -10449,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -10485,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -10519,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -10555,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -10591,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -10627,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -10663,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -10699,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -10735,7 +10746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10771,7 +10782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10807,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10843,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10879,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -10915,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10949,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10985,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -11021,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -11057,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -11093,7 +11104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -11129,7 +11140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -11165,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -11201,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -11237,7 +11248,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -11273,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -11309,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -11345,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -11381,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -11417,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -11453,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -11489,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -11523,7 +11534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -11559,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -11595,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -11629,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -11663,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -11699,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -11735,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -11771,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -11805,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11839,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11875,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11911,7 +11922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11945,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -11981,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -12013,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -12045,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -12077,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -12109,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -12141,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -12173,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -12205,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -12237,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -12258,7 +12269,7 @@
         <v>4606</v>
       </c>
       <c r="J72" s="7">
-        <v>63</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M72" s="2">
         <f t="shared" si="4"/>
@@ -12269,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="7"/>
     </row>
   </sheetData>
@@ -12288,13 +12299,13 @@
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="6" max="6" width="9.15625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -12314,7 +12325,7 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -12355,7 +12366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -12389,7 +12400,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -12433,7 +12444,7 @@
         <v>0.16000000000349246</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -12477,7 +12488,7 @@
         <v>-3.9999999993597157E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -12521,7 +12532,7 @@
         <v>-5.9999999997671694E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -12565,7 +12576,7 @@
         <v>-1.9999999996798579E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -12609,7 +12620,7 @@
         <v>-0.19999999999708962</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -12653,7 +12664,7 @@
         <v>-9.9999999998544808E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -12697,7 +12708,7 @@
         <v>0.38000000000465661</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -12741,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -12785,7 +12796,7 @@
         <v>0.12000000000261934</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -12829,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12873,7 +12884,7 @@
         <v>0.13999999999941792</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -12917,7 +12928,7 @@
         <v>-0.33999999999650754</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12961,7 +12972,7 @@
         <v>0.3400000000037835</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13005,7 +13016,7 @@
         <v>-0.18000000000029104</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13049,7 +13060,7 @@
         <v>-0.39999999999417923</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13093,7 +13104,7 @@
         <v>-0.45999999999912689</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13137,7 +13148,7 @@
         <v>0.48000000001047738</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -13181,7 +13192,7 @@
         <v>0.62000000000261934</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13225,7 +13236,7 @@
         <v>-0.41999999999825377</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -13269,7 +13280,7 @@
         <v>0.30000000000291038</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -13313,7 +13324,7 @@
         <v>-0.17999999999301508</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -13357,7 +13368,7 @@
         <v>0.41999999999825377</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>-0.30000000000291038</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -13443,7 +13454,7 @@
         <v>0.10000000000582077</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -13485,7 +13496,7 @@
         <v>0.27999999999883585</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>-9.9999999991268851E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -13573,7 +13584,7 @@
         <v>-0.13999999999941792</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -13617,7 +13628,7 @@
         <v>0.38000000000465661</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -13661,7 +13672,7 @@
         <v>0.40000000000873115</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -13705,7 +13716,7 @@
         <v>0.10000000000582077</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -13747,7 +13758,7 @@
         <v>-0.25999999999476131</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -13789,7 +13800,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -13831,7 +13842,7 @@
         <v>-0.33999999999650754</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -13875,7 +13886,7 @@
         <v>0.1200000000098953</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -13919,7 +13930,7 @@
         <v>-1.9999999989522621E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -13963,7 +13974,7 @@
         <v>-0.319999999992433</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14005,7 +14016,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14049,7 +14060,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14093,7 +14104,7 @@
         <v>-1.9999999989522621E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14137,7 +14148,7 @@
         <v>0.39999999999417923</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14181,7 +14192,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -14225,7 +14236,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14269,7 +14280,7 @@
         <v>-7.9999999987194315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14313,7 +14324,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14357,7 +14368,7 @@
         <v>0.18000000002211891</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14401,7 +14412,7 @@
         <v>0.18000000002211891</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14445,7 +14456,7 @@
         <v>-0.1999999999825377</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -14489,7 +14500,7 @@
         <v>-0.63999999998486601</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14533,7 +14544,7 @@
         <v>0.46000000002095476</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14577,7 +14588,7 @@
         <v>-0.17999999999301508</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14621,7 +14632,7 @@
         <v>8.0000000016298145E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14665,7 +14676,7 @@
         <v>0.33999999999650754</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14709,7 +14720,7 @@
         <v>0.42000000001280569</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -14753,7 +14764,7 @@
         <v>-0.44000000000232831</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14795,7 +14806,7 @@
         <v>0.1000000000349246</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14839,7 +14850,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -14883,7 +14894,7 @@
         <v>-0.27999999996973202</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -14927,7 +14938,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -14971,7 +14982,7 @@
         <v>0.28000000002793968</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -15015,7 +15026,7 @@
         <v>0.1000000000349246</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15059,7 +15070,7 @@
         <v>0.48000000003958121</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15103,7 +15114,7 @@
         <v>0.11999999999534339</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15147,7 +15158,7 @@
         <v>8.0000000016298145E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15191,7 +15202,7 @@
         <v>-0.20000000001164153</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15235,7 +15246,7 @@
         <v>4.0000000037252903E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -15279,7 +15290,7 @@
         <v>4.0000000037252903E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15323,7 +15334,7 @@
         <v>0.23999999999068677</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15367,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15411,29 +15422,29 @@
         <v>-0.13999999995576218</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -15448,18 +15459,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A1CCFF-D5A6-40E7-89D1-01DE298FE723}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15477,7 +15488,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15511,7 +15522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15541,7 +15552,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15575,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15609,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15643,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15677,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15711,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -15745,7 +15756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15779,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15813,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15836,7 +15847,7 @@
         <v>1150</v>
       </c>
       <c r="J12" s="7">
-        <v>6.2E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
@@ -15847,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15881,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15900,11 +15911,11 @@
         <v>1908</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <v>-168</v>
       </c>
-      <c r="J14" s="7">
-        <v>8.9999999999999993E-3</v>
+      <c r="J14" s="13">
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="0"/>
@@ -15915,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -15948,8 +15959,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -15983,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16017,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16051,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16085,7 +16102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16119,7 +16136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -16153,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16187,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16221,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16255,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16289,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16323,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -16357,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16391,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16425,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16459,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16493,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16527,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -16561,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16593,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16625,7 +16642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16657,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16689,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16723,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -16742,8 +16759,8 @@
         <v>51</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>4241</v>
+      <c r="I39" s="5">
+        <v>4342</v>
       </c>
       <c r="J39" s="7">
         <v>0.157</v>
@@ -16754,10 +16771,16 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="12"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16791,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16825,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16859,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16893,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16927,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -16961,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16995,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17027,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17059,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17091,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17123,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -17157,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17189,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17223,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17255,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17287,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17319,7 +17342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -17353,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17385,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17417,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17449,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17481,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17513,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -17545,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17577,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17609,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17641,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17677,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17713,7 +17736,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -17749,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17785,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17821,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17857,13 +17880,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
       <c r="J75" s="7"/>
     </row>
   </sheetData>
@@ -17882,12 +17911,12 @@
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17905,7 +17934,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17939,7 +17968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17969,7 +17998,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17991,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -18013,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -18035,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -18057,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -18079,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -18101,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -18129,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18163,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18197,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18231,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18267,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -18303,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18339,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18373,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18409,7 +18438,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18443,7 +18472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18479,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -18515,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18551,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18587,7 +18616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18623,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18659,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18693,7 +18722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -18729,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18763,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18797,7 +18826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18829,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18861,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18893,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -18927,7 +18956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18959,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18993,7 +19022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -19027,7 +19056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -19061,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -19097,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -19133,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19169,7 +19198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19205,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19241,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19277,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19311,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -19347,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19383,7 +19412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19419,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19455,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19491,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19527,7 +19556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -19563,7 +19592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19599,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19635,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19671,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19707,7 +19736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19741,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -19777,7 +19806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19811,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19847,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19881,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19917,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19953,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -19989,7 +20018,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -20025,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -20059,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -20093,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20127,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20161,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -20197,7 +20226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20231,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20265,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20299,13 +20328,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="7"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D470C-2B0D-485C-B593-8EECEB853FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F74EB-9253-44F0-ABEA-65B1A45CE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="70680" yWindow="1365" windowWidth="36870" windowHeight="21360" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,11 +248,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +612,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2218,8 +2225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C66BDD-1EE1-48D6-978D-F5185444C7BE}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2239,10 +2247,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -4667,8 +4675,8 @@
       <c r="I70" s="5">
         <v>29838</v>
       </c>
-      <c r="J70" s="7">
-        <v>0.71799999999999997</v>
+      <c r="J70" s="14">
+        <v>0.41799999999999998</v>
       </c>
       <c r="M70" s="2">
         <f t="shared" si="2"/>
@@ -4781,10 +4789,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7270,10 +7278,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -9872,10 +9880,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -12315,10 +12323,10 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="13"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -15461,7 +15469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A1CCFF-D5A6-40E7-89D1-01DE298FE723}">
   <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -15478,10 +15486,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15914,7 +15922,7 @@
       <c r="I14" s="5">
         <v>-168</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>-8.9999999999999993E-3</v>
       </c>
       <c r="M14" s="2">
@@ -15964,7 +15972,7 @@
       <c r="S15" s="3"/>
       <c r="V15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
@@ -16778,7 +16786,7 @@
       <c r="S39" s="3"/>
       <c r="V39" s="3"/>
       <c r="X39" s="3"/>
-      <c r="Y39" s="12"/>
+      <c r="Y39" s="11"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
@@ -17924,10 +17932,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F74EB-9253-44F0-ABEA-65B1A45CE5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942CF34-7A5A-436A-89C8-3EFAE7435EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70680" yWindow="1365" windowWidth="36870" windowHeight="21360" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="12270" yWindow="1815" windowWidth="23355" windowHeight="19110" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Arvejon" sheetId="8" r:id="rId8"/>
     <sheet name="Avena en grano" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="43">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -159,6 +154,21 @@
   <si>
     <t>Отрицательное значение потребления в 1934 году отражает экспорт остатков и уменьшенное потребление в предшествующем году</t>
   </si>
+  <si>
+    <t>Для четырёх культур (Frijol/фасоль, Maiz/маис, Arroz/рис, Trigo/пшеница) мы добавляем сведения за 1983-1986 гг. по изданию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Mostkiff, E. Ochoa, "Complexities of Measuring the Food Situation in Mexico: Supply versus Self-Sufficiency of Basic Grains, 1925-86" // "Society and Economy in Mexico", Statistical Abstract of Latin America Supplement Series, Supplement 10, ред. J. Wilkie, UCLA Latin American Center Publications, 2004, стр. 122-129. </t>
+  </si>
+  <si>
+    <t>использующему для 1982-1985 гг. SARH, "Consumos Aparentes de Productos Agricolas, 1980-1985", а для 1986 года:</t>
+  </si>
+  <si>
+    <t>Las Razones y las Obrasy Gobierno de Miguel de la Madrid : Cronica del Sexenio, 1982-1988. Tercer Año,</t>
+  </si>
+  <si>
+    <t>Presidencia de la Republica, Unidad de la Cronica Presidencial, Mexico, D.F.: Fondo de Cultura Economica, 1986, т. 4.</t>
+  </si>
 </sst>
 </file>
 
@@ -250,10 +260,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,22 +578,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7087082-0DF5-4E46-83F8-2BC823456A8D}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -599,12 +634,12 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -612,17 +647,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -656,7 +691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -686,7 +721,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -708,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -730,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -752,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -774,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -796,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -840,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -862,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -884,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -906,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -928,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -950,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -972,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -994,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1038,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1060,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1104,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1126,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1148,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1192,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1236,7 +1271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1302,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1390,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1412,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1456,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1478,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1500,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1522,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1544,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1632,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1654,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1698,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1720,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1764,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1786,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1808,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1852,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1918,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1940,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1962,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -1984,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2028,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2050,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2072,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2116,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2160,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2204,13 +2239,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="7"/>
     </row>
   </sheetData>
@@ -2225,21 +2260,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C66BDD-1EE1-48D6-978D-F5185444C7BE}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26171875" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21.68359375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="9" max="9" width="18.83984375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2247,17 +2282,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2291,7 +2326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2321,7 +2356,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2423,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2491,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2561,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2597,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2633,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2705,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2777,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2813,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2849,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2885,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2993,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3029,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3065,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3101,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3137,7 +3172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3171,7 +3206,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3205,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3273,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3307,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3341,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3375,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3409,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3443,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3477,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3511,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3545,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3613,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3647,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3683,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3719,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3755,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -3791,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3827,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3863,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3899,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3935,7 +3970,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3971,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4007,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4043,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4079,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4115,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4151,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4187,7 +4222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -4223,7 +4258,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4259,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4295,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4331,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4367,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4403,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4439,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4473,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4507,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4543,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4579,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4615,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4651,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4675,7 +4710,7 @@
       <c r="I70" s="5">
         <v>29838</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="13">
         <v>0.41799999999999998</v>
       </c>
       <c r="M70" s="2">
@@ -4687,7 +4722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4723,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4776,12 +4811,12 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4789,17 +4824,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4833,7 +4868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4863,7 +4898,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4897,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4931,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4999,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5033,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5067,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5101,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5135,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5169,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5203,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5237,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5273,7 +5308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5309,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5341,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5373,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5407,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5441,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5477,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5513,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5547,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5581,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5617,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5651,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5687,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5719,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5753,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5785,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5819,7 +5854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5851,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5919,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5951,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5987,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6021,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6053,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -6089,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6123,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6155,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6187,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6221,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6257,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -6291,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6327,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6363,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6399,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6435,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6471,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -6507,7 +6542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6543,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6579,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6615,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6651,7 +6686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6687,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -6723,7 +6758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6759,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6795,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6831,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6867,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6903,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -6939,7 +6974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6973,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7007,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7041,7 +7076,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7077,7 +7112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7111,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -7147,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7181,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7215,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7265,12 +7300,12 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7278,17 +7313,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7322,7 +7357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7352,7 +7387,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7388,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7424,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7460,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7496,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7532,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -7568,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7604,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -7640,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7676,7 +7711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7712,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7748,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7784,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7820,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7856,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7892,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7928,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7964,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -8000,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -8036,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -8072,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -8108,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -8144,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -8180,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -8216,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -8252,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -8288,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -8324,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -8360,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -8396,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -8432,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8468,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8504,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8540,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8576,7 +8611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8612,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -8648,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8684,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8720,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8756,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8792,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8828,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8864,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8900,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8936,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8972,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -9008,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -9044,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -9080,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -9116,7 +9151,7 @@
         <v>-6000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -9152,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -9188,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -9224,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -9260,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -9296,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -9332,7 +9367,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -9368,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -9404,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -9440,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -9476,7 +9511,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -9512,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -9548,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -9584,7 +9619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -9620,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -9656,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -9692,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -9728,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -9764,7 +9799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9800,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9836,17 +9871,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -9867,12 +9902,12 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9880,17 +9915,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9924,7 +9959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9954,7 +9989,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9976,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9998,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -10020,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -10042,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -10064,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -10086,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -10108,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -10144,7 +10179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -10180,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -10216,7 +10251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -10252,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -10288,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -10324,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -10360,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -10396,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -10432,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -10468,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -10504,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -10538,7 +10573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -10574,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -10610,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -10646,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -10682,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -10718,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -10754,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10790,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10826,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10862,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10898,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -10934,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10968,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -11004,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -11040,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -11076,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -11112,7 +11147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -11148,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -11184,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -11220,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -11256,7 +11291,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -11292,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -11328,7 +11363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -11364,7 +11399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -11400,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -11436,7 +11471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -11472,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -11508,7 +11543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -11542,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -11578,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -11614,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -11648,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -11682,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -11718,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -11754,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -11790,7 +11825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -11824,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11858,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11894,7 +11929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11930,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11964,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -12000,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -12032,7 +12067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -12064,7 +12099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -12096,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -12128,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -12160,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -12192,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -12224,7 +12259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -12256,7 +12291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -12288,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="7"/>
     </row>
   </sheetData>
@@ -12307,13 +12342,13 @@
       <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="6" max="6" width="9.15625" style="9"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -12323,17 +12358,17 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="13"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -12374,7 +12409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -12408,7 +12443,7 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -12452,7 +12487,7 @@
         <v>0.16000000000349246</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -12496,7 +12531,7 @@
         <v>-3.9999999993597157E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -12540,7 +12575,7 @@
         <v>-5.9999999997671694E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -12584,7 +12619,7 @@
         <v>-1.9999999996798579E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -12628,7 +12663,7 @@
         <v>-0.19999999999708962</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -12672,7 +12707,7 @@
         <v>-9.9999999998544808E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -12716,7 +12751,7 @@
         <v>0.38000000000465661</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -12760,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -12804,7 +12839,7 @@
         <v>0.12000000000261934</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -12848,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12892,7 +12927,7 @@
         <v>0.13999999999941792</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -12936,7 +12971,7 @@
         <v>-0.33999999999650754</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12980,7 +13015,7 @@
         <v>0.3400000000037835</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13024,7 +13059,7 @@
         <v>-0.18000000000029104</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13068,7 +13103,7 @@
         <v>-0.39999999999417923</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13112,7 +13147,7 @@
         <v>-0.45999999999912689</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13156,7 +13191,7 @@
         <v>0.48000000001047738</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -13200,7 +13235,7 @@
         <v>0.62000000000261934</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13244,7 +13279,7 @@
         <v>-0.41999999999825377</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -13288,7 +13323,7 @@
         <v>0.30000000000291038</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -13332,7 +13367,7 @@
         <v>-0.17999999999301508</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -13376,7 +13411,7 @@
         <v>0.41999999999825377</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -13418,7 +13453,7 @@
         <v>-0.30000000000291038</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -13462,7 +13497,7 @@
         <v>0.10000000000582077</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -13504,7 +13539,7 @@
         <v>0.27999999999883585</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -13548,7 +13583,7 @@
         <v>-9.9999999991268851E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -13592,7 +13627,7 @@
         <v>-0.13999999999941792</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -13636,7 +13671,7 @@
         <v>0.38000000000465661</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -13680,7 +13715,7 @@
         <v>0.40000000000873115</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -13724,7 +13759,7 @@
         <v>0.10000000000582077</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -13766,7 +13801,7 @@
         <v>-0.25999999999476131</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -13808,7 +13843,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -13850,7 +13885,7 @@
         <v>-0.33999999999650754</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -13894,7 +13929,7 @@
         <v>0.1200000000098953</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -13938,7 +13973,7 @@
         <v>-1.9999999989522621E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -13982,7 +14017,7 @@
         <v>-0.319999999992433</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14024,7 +14059,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14068,7 +14103,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14112,7 +14147,7 @@
         <v>-1.9999999989522621E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14156,7 +14191,7 @@
         <v>0.39999999999417923</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14200,7 +14235,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -14244,7 +14279,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14288,7 +14323,7 @@
         <v>-7.9999999987194315E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14332,7 +14367,7 @@
         <v>4.0000000008149073E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14376,7 +14411,7 @@
         <v>0.18000000002211891</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14420,7 +14455,7 @@
         <v>0.18000000002211891</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14464,7 +14499,7 @@
         <v>-0.1999999999825377</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -14508,7 +14543,7 @@
         <v>-0.63999999998486601</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14552,7 +14587,7 @@
         <v>0.46000000002095476</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14596,7 +14631,7 @@
         <v>-0.17999999999301508</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14640,7 +14675,7 @@
         <v>8.0000000016298145E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14684,7 +14719,7 @@
         <v>0.33999999999650754</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14728,7 +14763,7 @@
         <v>0.42000000001280569</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -14772,7 +14807,7 @@
         <v>-0.44000000000232831</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14814,7 +14849,7 @@
         <v>0.1000000000349246</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14858,7 +14893,7 @@
         <v>0.22000000000116415</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -14902,7 +14937,7 @@
         <v>-0.27999999996973202</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -14946,7 +14981,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -14990,7 +15025,7 @@
         <v>0.28000000002793968</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -15034,7 +15069,7 @@
         <v>0.1000000000349246</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15078,7 +15113,7 @@
         <v>0.48000000003958121</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15122,7 +15157,7 @@
         <v>0.11999999999534339</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15166,7 +15201,7 @@
         <v>8.0000000016298145E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15210,7 +15245,7 @@
         <v>-0.20000000001164153</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15254,7 +15289,7 @@
         <v>4.0000000037252903E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -15298,7 +15333,7 @@
         <v>4.0000000037252903E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15342,7 +15377,7 @@
         <v>0.23999999999068677</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15386,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15430,29 +15465,29 @@
         <v>-0.13999999995576218</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>33</v>
       </c>
@@ -15473,12 +15508,12 @@
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15486,17 +15521,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15530,7 +15565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15560,7 +15595,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15594,7 +15629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15628,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15662,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15696,7 +15731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15730,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -15764,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15798,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15832,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15866,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15900,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15934,7 +15969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -15974,7 +16009,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="11"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16008,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16042,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16076,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16110,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16144,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -16178,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16212,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16246,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16280,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16314,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16348,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -16382,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16416,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16450,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16484,7 +16519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16518,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16552,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -16586,7 +16621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16618,7 +16653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16650,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16682,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16714,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16748,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -16788,7 +16823,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="11"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16822,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16856,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16890,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16924,7 +16959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16958,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -16992,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -17026,7 +17061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17058,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17090,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17122,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17154,7 +17189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -17188,7 +17223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17220,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17254,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17286,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17318,7 +17353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17350,7 +17385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -17384,7 +17419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17416,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17448,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17480,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17512,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17544,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -17576,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17608,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17640,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17672,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17708,7 +17743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17744,7 +17779,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -17780,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17816,7 +17851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17852,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17888,16 +17923,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>37</v>
       </c>
@@ -17919,12 +17954,12 @@
       <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17932,17 +17967,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17976,7 +18011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -18006,7 +18041,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -18028,7 +18063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -18050,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -18072,7 +18107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -18094,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -18116,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -18138,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -18166,7 +18201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18200,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18234,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18268,7 +18303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18304,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -18340,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18376,7 +18411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18410,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18446,7 +18481,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18480,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18516,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -18552,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18588,7 +18623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18624,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18660,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18696,7 +18731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18730,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -18766,7 +18801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18800,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18834,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18866,7 +18901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18898,7 +18933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18930,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -18964,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18996,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -19030,7 +19065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -19064,7 +19099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -19098,7 +19133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -19134,7 +19169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -19170,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19206,7 +19241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19242,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19278,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19314,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19348,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -19384,7 +19419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19420,7 +19455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19456,7 +19491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19492,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19528,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19564,7 +19599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -19600,7 +19635,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19636,7 +19671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19672,7 +19707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19708,7 +19743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19744,7 +19779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19778,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -19814,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19848,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19884,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19918,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19954,7 +19989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19990,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -20026,7 +20061,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -20062,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -20096,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -20130,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20164,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20198,7 +20233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -20234,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20268,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20302,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20336,13 +20371,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="7"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942CF34-7A5A-436A-89C8-3EFAE7435EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C4900-B0F1-420F-AFAD-29BA9DC94BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="1815" windowWidth="23355" windowHeight="19110" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="-495" yWindow="2100" windowWidth="23355" windowHeight="19110" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7087082-0DF5-4E46-83F8-2BC823456A8D}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -12336,10 +12336,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCCA15D-EABD-4932-B7FC-EB1965DB2EAF}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15325,11 +15325,11 @@
         <v>-22.584999999962747</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" ref="Q69:Q72" si="4">F69-I69+H69-K69</f>
+        <f t="shared" ref="Q69:Q76" si="4">F69-I69+H69-K69</f>
         <v>0</v>
       </c>
       <c r="S69" s="2">
-        <f t="shared" ref="S69:S72" si="5">D69*0.66-F69</f>
+        <f t="shared" ref="S69:S76" si="5">D69*0.66-F69</f>
         <v>4.0000000037252903E-2</v>
       </c>
     </row>
@@ -15466,29 +15466,138 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L73" s="7"/>
+      <c r="A73" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D73" s="3">
+        <v>415667</v>
+      </c>
+      <c r="F73" s="10">
+        <v>274340</v>
+      </c>
+      <c r="H73">
+        <v>243</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>274583</v>
+      </c>
+      <c r="L73" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22000000003026798</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L74" s="7"/>
+      <c r="A74" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D74" s="3">
+        <v>484014</v>
+      </c>
+      <c r="F74" s="10">
+        <v>319449</v>
+      </c>
+      <c r="H74" s="3">
+        <v>170454</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>489903</v>
+      </c>
+      <c r="L74" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" si="5"/>
+        <v>0.23999999999068677</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="1">
+        <v>1985</v>
+      </c>
+      <c r="D75" s="3">
+        <v>807529</v>
+      </c>
+      <c r="F75" s="10">
+        <v>532969</v>
+      </c>
+      <c r="H75" s="3">
+        <v>165172</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>698141</v>
+      </c>
+      <c r="L75" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="Q75" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14000000001396984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1986</v>
+      </c>
+      <c r="D76" s="3">
+        <v>406000</v>
+      </c>
+      <c r="F76" s="10">
+        <v>267960</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="K76" s="3">
+        <v>406000</v>
+      </c>
+      <c r="L76" s="7">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3"/>
+      <c r="S76" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>33</v>
       </c>
     </row>
@@ -15497,6 +15606,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
